--- a/data/class.xlsx
+++ b/data/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fast Computer\Desktop\New folder (15)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsalan Ashfaque\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870D77B-A574-49F2-9CBE-B1FE4565DF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EDECC3-DC17-440D-AEC8-F8C4987477E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="102">
   <si>
     <t>Roll No</t>
   </si>
@@ -364,8 +364,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,17 +707,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="16.58203125" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,187 +725,187 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="AO1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2">
+        <v>2202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>75</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2">
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2">
         <v>80</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>78</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>72</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
       <c r="V2" t="s">
         <v>37</v>
       </c>
@@ -937,13 +937,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI2" t="s">
         <v>37</v>
@@ -954,80 +954,80 @@
       <c r="AK2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2">
-        <v>2202</v>
+      <c r="AL2" t="s">
+        <v>37</v>
       </c>
       <c r="AM2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
       </c>
       <c r="AO2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3">
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>50</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
       <c r="U3" t="s">
         <v>37</v>
       </c>
@@ -1062,124 +1062,124 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="AH3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="AI3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL3" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AM3" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="AO3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>801</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>60</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4">
-        <v>70</v>
-      </c>
-      <c r="L4">
-        <v>68</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
       <c r="N4" t="s">
         <v>37</v>
       </c>
       <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="P4">
-        <v>65</v>
+      <c r="P4" t="s">
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>70</v>
       </c>
       <c r="R4">
+        <v>68</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4">
+        <v>65</v>
+      </c>
+      <c r="W4">
+        <v>70</v>
+      </c>
+      <c r="X4">
         <v>72</v>
       </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4">
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4">
         <v>68</v>
       </c>
-      <c r="X4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
       <c r="AD4" t="s">
         <v>37</v>
       </c>
@@ -1187,13 +1187,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AI4" t="s">
         <v>37</v>
@@ -1210,115 +1210,115 @@
       <c r="AM4" t="s">
         <v>37</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" t="s">
         <v>37</v>
       </c>
       <c r="AO4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>901</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
         <v>60</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>70</v>
-      </c>
-      <c r="L5">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
       <c r="N5" t="s">
         <v>37</v>
       </c>
       <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="P5">
-        <v>70</v>
+      <c r="P5" t="s">
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>70</v>
       </c>
       <c r="R5">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5">
         <v>70</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
       </c>
       <c r="W5">
         <v>70</v>
       </c>
       <c r="X5">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5">
+        <v>70</v>
+      </c>
+      <c r="AD5">
         <v>34</v>
       </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>37</v>
-      </c>
       <c r="AE5" t="s">
         <v>37</v>
       </c>
       <c r="AF5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AI5" t="s">
         <v>37</v>
@@ -1335,74 +1335,74 @@
       <c r="AM5" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" t="s">
         <v>37</v>
       </c>
       <c r="AO5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>601</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>26</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6">
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6">
         <v>34</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>24</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6">
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
       <c r="U6" t="s">
         <v>37</v>
       </c>
@@ -1460,14 +1460,14 @@
       <c r="AM6" t="s">
         <v>37</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AN6" t="s">
         <v>37</v>
       </c>
       <c r="AO6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1475,28 +1475,28 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
@@ -1507,27 +1507,27 @@
       <c r="M7" t="s">
         <v>37</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>37</v>
-      </c>
       <c r="U7" t="s">
         <v>37</v>
       </c>
@@ -1540,59 +1540,59 @@
       <c r="X7" t="s">
         <v>37</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7">
         <v>34</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>12</v>
       </c>
-      <c r="AA7">
+      <c r="AG7">
         <v>30</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>32</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
         <v>31</v>
       </c>
-      <c r="AD7">
+      <c r="AJ7">
         <v>32</v>
       </c>
-      <c r="AE7">
+      <c r="AK7">
         <v>33</v>
       </c>
-      <c r="AF7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>37</v>
-      </c>
       <c r="AL7" t="s">
         <v>37</v>
       </c>
       <c r="AM7" t="s">
         <v>37</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" t="s">
         <v>37</v>
       </c>
       <c r="AO7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>111</v>
       </c>
@@ -1600,28 +1600,28 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -1632,27 +1632,27 @@
       <c r="M8" t="s">
         <v>37</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8">
         <v>32</v>
       </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
       <c r="U8" t="s">
         <v>37</v>
       </c>
@@ -1665,119 +1665,119 @@
       <c r="X8" t="s">
         <v>37</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE8">
         <v>34</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>12</v>
       </c>
-      <c r="AA8">
+      <c r="AG8">
         <v>30</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>32</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
         <v>31</v>
       </c>
-      <c r="AD8">
+      <c r="AJ8">
         <v>32</v>
       </c>
-      <c r="AE8">
+      <c r="AK8">
         <v>33</v>
       </c>
-      <c r="AF8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>37</v>
-      </c>
       <c r="AL8" t="s">
         <v>37</v>
       </c>
       <c r="AM8" t="s">
         <v>37</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" t="s">
         <v>37</v>
       </c>
       <c r="AO8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Q9" t="s">
         <v>50</v>
       </c>
-      <c r="L9" t="s">
+      <c r="R9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" t="s">
+      <c r="S9" t="s">
         <v>47</v>
       </c>
-      <c r="N9">
+      <c r="T9">
         <v>50</v>
       </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" t="s">
-        <v>37</v>
-      </c>
       <c r="U9" t="s">
         <v>37</v>
       </c>
@@ -1812,124 +1812,124 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="AH9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL9" t="s">
         <v>54</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AM9" t="s">
         <v>55</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AN9" t="s">
         <v>56</v>
       </c>
-      <c r="AL9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="AO9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>888</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>60</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>65</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>70</v>
-      </c>
-      <c r="L10">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
       <c r="N10" t="s">
         <v>37</v>
       </c>
       <c r="O10" t="s">
         <v>37</v>
       </c>
-      <c r="P10">
-        <v>65</v>
+      <c r="P10" t="s">
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>70</v>
       </c>
       <c r="R10">
+        <v>68</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10">
+        <v>65</v>
+      </c>
+      <c r="W10">
+        <v>70</v>
+      </c>
+      <c r="X10">
         <v>72</v>
       </c>
-      <c r="S10" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10">
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10">
         <v>68</v>
       </c>
-      <c r="X10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>37</v>
-      </c>
       <c r="AD10" t="s">
         <v>37</v>
       </c>
@@ -1937,13 +1937,13 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AI10" t="s">
         <v>37</v>
@@ -1960,115 +1960,115 @@
       <c r="AM10" t="s">
         <v>37</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" t="s">
         <v>37</v>
       </c>
       <c r="AO10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>999</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
         <v>60</v>
       </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>70</v>
-      </c>
-      <c r="L11">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
       <c r="N11" t="s">
         <v>37</v>
       </c>
       <c r="O11" t="s">
         <v>37</v>
       </c>
-      <c r="P11">
-        <v>70</v>
+      <c r="P11" t="s">
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>70</v>
       </c>
       <c r="R11">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11">
         <v>70</v>
-      </c>
-      <c r="S11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" t="s">
-        <v>37</v>
       </c>
       <c r="W11">
         <v>70</v>
       </c>
       <c r="X11">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11">
+        <v>70</v>
+      </c>
+      <c r="AD11">
         <v>34</v>
       </c>
-      <c r="Y11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>37</v>
-      </c>
       <c r="AE11" t="s">
         <v>37</v>
       </c>
       <c r="AF11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AH11" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AI11" t="s">
         <v>37</v>
@@ -2085,74 +2085,74 @@
       <c r="AM11" t="s">
         <v>37</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" t="s">
         <v>37</v>
       </c>
       <c r="AO11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>666</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
         <v>45</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>26</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12">
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12">
         <v>34</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>24</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>34</v>
       </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12">
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" t="s">
-        <v>37</v>
-      </c>
       <c r="U12" t="s">
         <v>37</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="AM12" t="s">
         <v>37</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" t="s">
         <v>37</v>
       </c>
       <c r="AO12" t="s">
@@ -2220,7 +2220,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:AO12 A1:K1 AO1 A2:AK2 AO2 M1:AK1" numberStoredAsText="1"/>
+    <ignoredError sqref="K1:Q1 K2:AK12 S1:AK1 D1:D12 AL1:AO12 A1:B12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2231,9 +2231,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>74</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>83</v>
       </c>
@@ -2300,15 +2300,15 @@
       <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2324,15 +2324,15 @@
       <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2348,15 +2348,15 @@
       <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>85</v>
       </c>
@@ -2372,15 +2372,15 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2396,12 +2396,12 @@
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -2417,12 +2417,12 @@
       <c r="J10" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>90</v>
       </c>
@@ -2438,29 +2438,29 @@
       <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>92</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>94</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>6</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>85</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>11</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>21</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>22</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>90</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="6:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>23</v>
       </c>
